--- a/biology/Zoologie/Heterometrus/Heterometrus.xlsx
+++ b/biology/Zoologie/Heterometrus/Heterometrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometrus est un genre de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (27/07/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (27/07/2023) :
 Heterometrus cimrmani Kovařík, 2004
 Heterometrus glaucus (Thorell, 1876)
 Heterometrus laevigatus (Thorell, 1876)
@@ -582,12 +598,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Hemprich et Ehrenberg en 1828.
-Palamnaeus[3] a été placé en synonymie par Karsch en 1879[4].
-Centrurus[5] et Caucon[4] ont été placés en synonymie par Kraepelin en 1894[6].
-Il a été démembré par Prendini et Loria en 2020[1], ses espèces ont été réparties entre les genres Chersonesometrus, Deccanometrus, Gigantometrus, Javanimetrus, Sahyadrimetrus, Srilankametrus et Heterometrus stricto sensu.
+Palamnaeus a été placé en synonymie par Karsch en 1879.
+Centrurus et Caucon ont été placés en synonymie par Kraepelin en 1894.
+Il a été démembré par Prendini et Loria en 2020, ses espèces ont été réparties entre les genres Chersonesometrus, Deccanometrus, Gigantometrus, Javanimetrus, Sahyadrimetrus, Srilankametrus et Heterometrus stricto sensu.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hemprich &amp; Ehrenberg, 1828 : Zoologica II. Arachnoidea. Symbolae physicae seu icones et descriptiones animalium evertebratorum sepositis insectis quae ex itinere per Africam borealem et Asiam occidentalem. Berolini, Officina Academica, (texte intégral).</t>
         </is>
